--- a/protocol/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/protocol/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acheb\Documents\Programming\SoftUni\softuni-courses\javascript-spa\March-2016\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -54,9 +44,6 @@
   </si>
   <si>
     <t>GitHub (up to 100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>GithHub Profile Link</t>
@@ -128,11 +115,10 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-&gt;</t>
     </r>
@@ -150,12 +136,18 @@
   <si>
     <t>-&gt;Edit Project Page</t>
   </si>
+  <si>
+    <t>CharlieScarver</t>
+  </si>
+  <si>
+    <t>Alexander Apostolov</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,35 +156,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -204,25 +205,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +294,7 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,17 +306,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,31 +325,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -357,14 +358,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -411,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,30 +650,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18.75">
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
@@ -689,220 +682,252 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
+      <c r="C5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="2:5" ht="18.75">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
       <c r="D8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>31</v>
+      </c>
       <c r="D9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="18.75">
+      <c r="B10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
+      <c r="C11" s="4">
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>20</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>20</v>
+      </c>
       <c r="D12" s="4">
         <v>30</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
       <c r="D13" s="4">
         <v>5</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5">
       <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
       <c r="D17" s="4">
         <v>5</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
       <c r="D19" s="4">
         <v>15</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
       <c r="D20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
       <c r="D21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
       <c r="D22" s="4">
         <v>5</v>
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
       <c r="D23" s="4">
         <v>10</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="18.75">
+      <c r="B24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6">
@@ -910,9 +935,9 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
@@ -920,17 +945,17 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="B27" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="B28" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6">
@@ -938,19 +963,21 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5">
       <c r="B29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
@@ -958,23 +985,25 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5">
       <c r="B31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
       <c r="D31" s="6">
         <v>5</v>
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" ht="18.75">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>
@@ -983,14 +1012,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C7:E7"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
